--- a/biology/Zoologie/Conus_figulinus/Conus_figulinus.xlsx
+++ b/biology/Zoologie/Conus_figulinus/Conus_figulinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus figulinus est une espèce de mollusque gastéropode marin appartenant à la famille des Conidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Océan Indien et ouest de l’Océan Pacifique.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se caractérise par une couleur brune, qui devient plus foncée sur la spire. Il est cerclé de nombreuses fines lignes brunes plus foncées.
 Sa longueur est d'environ 13,5 cm.
